--- a/Time recording log.xlsx
+++ b/Time recording log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olesj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82841A2-B160-465D-B00F-2421552D3A4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB65126-A79B-4068-ADAB-BC7D34747279}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nädal 1, 2" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Nädal 6" sheetId="5" r:id="rId5"/>
     <sheet name="Nädal 7" sheetId="6" r:id="rId6"/>
     <sheet name="Nädal 8" sheetId="7" r:id="rId7"/>
+    <sheet name="Nädal 9" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_">'Nädal 1, 2'!$O$17</definedName>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="44">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -187,6 +188,12 @@
   </si>
   <si>
     <t>Java programmi kirjutamine</t>
+  </si>
+  <si>
+    <t>8.kodutöö</t>
+  </si>
+  <si>
+    <t>Java</t>
   </si>
 </sst>
 </file>
@@ -3373,8 +3380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C168BF-498C-4254-8FE1-BA56920F30B1}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3664,4 +3671,287 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0C575B-33EA-441D-9690-429C9F6ED3FF}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="51">
+        <v>43884</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>150</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="51">
+        <v>43914</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.625</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E3" s="6">
+        <v>30</v>
+      </c>
+      <c r="F3" s="6">
+        <v>180</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="51">
+        <v>43915</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E4" s="6">
+        <v>70</v>
+      </c>
+      <c r="F4" s="6">
+        <v>380</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="51">
+        <v>43916</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="E5" s="6">
+        <v>150</v>
+      </c>
+      <c r="F5" s="6">
+        <v>491</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="51"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="51"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="51"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="51"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="48">
+        <f>SUM(F2:F12)</f>
+        <v>1201</v>
+      </c>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A13:E13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Time recording log.xlsx
+++ b/Time recording log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olesj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB65126-A79B-4068-ADAB-BC7D34747279}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B52AD4-37CE-4281-A2E8-6FEC376067CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nädal 1, 2" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Nädal 7" sheetId="6" r:id="rId6"/>
     <sheet name="Nädal 8" sheetId="7" r:id="rId7"/>
     <sheet name="Nädal 9" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_">'Nädal 1, 2'!$O$17</definedName>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="47">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -194,6 +195,15 @@
   </si>
   <si>
     <t>Java</t>
+  </si>
+  <si>
+    <t>9.kodutöö</t>
+  </si>
+  <si>
+    <t>video+konspekt</t>
+  </si>
+  <si>
+    <t>Kanban</t>
   </si>
 </sst>
 </file>
@@ -3677,8 +3687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0C575B-33EA-441D-9690-429C9F6ED3FF}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3954,4 +3964,312 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C77E3C-947B-433C-9D52-C5A0B54E6720}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="51">
+        <v>43920</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.8125</v>
+      </c>
+      <c r="E2" s="6">
+        <v>15</v>
+      </c>
+      <c r="F2" s="6">
+        <v>135</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="51">
+        <v>43921</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="E3" s="6">
+        <v>45</v>
+      </c>
+      <c r="F3" s="6">
+        <v>155</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="51">
+        <v>43922</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.625</v>
+      </c>
+      <c r="E4" s="6">
+        <v>75</v>
+      </c>
+      <c r="F4" s="6">
+        <v>255</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="51">
+        <v>43922</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="E5" s="6">
+        <v>20</v>
+      </c>
+      <c r="F5" s="6">
+        <v>115</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="51">
+        <v>43922</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>80</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="51">
+        <v>43923</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="E7" s="6">
+        <v>180</v>
+      </c>
+      <c r="F7" s="6">
+        <v>420</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="51"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="51"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="51"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="48">
+        <f>SUM(F2:F12)</f>
+        <v>1160</v>
+      </c>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A13:E13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>